--- a/file_export/nang_luong/Danh sach can bo nang luong.xlsx
+++ b/file_export/nang_luong/Danh sach can bo nang luong.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Bậc, hệ số hiện hưởng</t>
-  </si>
-  <si>
-    <t>Mẫn Việt Dũng</t>
   </si>
 </sst>
 </file>
@@ -273,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -365,6 +362,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,7 +768,7 @@
   <dimension ref="A1:Y1939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,296 +801,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customHeight="1" ht="24">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="1"/>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
     </row>
     <row r="5" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
     </row>
     <row r="6" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:25" customHeight="1" ht="45">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
     </row>
     <row r="8" spans="1:25" customHeight="1" ht="20.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="46" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
     </row>
     <row r="9" spans="1:25" customHeight="1" ht="17.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="42" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="40" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="40" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="41" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="14"/>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="41" t="s">
+      <c r="O9" s="39"/>
+      <c r="P9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="42" t="s">
+      <c r="Q9" s="38"/>
+      <c r="R9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="S9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="T9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="53" t="s">
+      <c r="U9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="51" t="s">
+      <c r="V9" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="49" t="s">
+      <c r="W9" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:25" customHeight="1" ht="60.75">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="37" t="s">
+      <c r="N10" s="42"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="50"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="51"/>
     </row>
     <row r="11" spans="1:25" customHeight="1" ht="24.75" s="4" customFormat="1">
-      <c r="A11" s="25">
-        <v>1</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="27">
-        <v>2.25</v>
-      </c>
+      <c r="A11" s="25"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="28">
-        <v>10</v>
-      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="29">
-        <v>10</v>
-      </c>
+      <c r="J11" s="29"/>
       <c r="K11" s="26"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33">
-        <v>2.25</v>
-      </c>
-      <c r="S11" s="34">
-        <v>11</v>
-      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
       <c r="T11" s="29"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">

--- a/file_export/nang_luong/Danh sach can bo nang luong.xlsx
+++ b/file_export/nang_luong/Danh sach can bo nang luong.xlsx
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
   </si>
   <si>
-    <t xml:space="preserve">ĐOÀN TNCS HỒ CHÍ MINH
+    <t xml:space="preserve">TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI
 </t>
   </si>
   <si>
@@ -39,7 +39,7 @@
     <t>NÂNG BẬC LƯƠNG THƯỜNG XUYÊN CỦA CÔNG CHỨC, VIÊN CHỨC</t>
   </si>
   <si>
-    <t>CƠ QUAN TRUNG ƯƠNG ĐOÀN NĂM 2014</t>
+    <t>TỪ 01-01-2016 đến 31-12-2017</t>
   </si>
   <si>
     <t>------</t>
@@ -91,6 +91,378 @@
   </si>
   <si>
     <t>Bậc, hệ số hiện hưởng</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Thu Phương</t>
+  </si>
+  <si>
+    <t>Chuyên viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34 </t>
+  </si>
+  <si>
+    <t>01-08-2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>01-08-2016</t>
+  </si>
+  <si>
+    <t>Bùi Xuân Tùng</t>
+  </si>
+  <si>
+    <t>Kỹ sư</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>01-05-2014</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67 </t>
+  </si>
+  <si>
+    <t>01-05-2017</t>
+  </si>
+  <si>
+    <t>Lã Quang Trung</t>
+  </si>
+  <si>
+    <t>Tạ Hữu Toàn</t>
+  </si>
+  <si>
+    <t>01-06-2014</t>
+  </si>
+  <si>
+    <t>01-06-2017</t>
+  </si>
+  <si>
+    <t>Kiều Văn Cẩn</t>
+  </si>
+  <si>
+    <t>01-01-2014</t>
+  </si>
+  <si>
+    <t>01-01-2017</t>
+  </si>
+  <si>
+    <t>Phan Văn Thoại</t>
+  </si>
+  <si>
+    <t>01-10-2013</t>
+  </si>
+  <si>
+    <t>01-10-2016</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00 </t>
+  </si>
+  <si>
+    <t>01-03-2014</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>01-03-2017</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hường</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>01-04-2014</t>
+  </si>
+  <si>
+    <t>01-04-2017</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Cúc</t>
+  </si>
+  <si>
+    <t>8/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32 </t>
+  </si>
+  <si>
+    <t>9/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98 </t>
+  </si>
+  <si>
+    <t>Trần Trung Hiếu</t>
+  </si>
+  <si>
+    <t>Phó Trưởng phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33 </t>
+  </si>
+  <si>
+    <t>Giang Thị Tuyết Nhung</t>
+  </si>
+  <si>
+    <t>Kế toán viên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hữu</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99 </t>
+  </si>
+  <si>
+    <t>7/9</t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Long</t>
+  </si>
+  <si>
+    <t>01-12-2013</t>
+  </si>
+  <si>
+    <t>01-12-2016</t>
+  </si>
+  <si>
+    <t>Trương Ngọc Linh</t>
+  </si>
+  <si>
+    <t>01-09-2013</t>
+  </si>
+  <si>
+    <t>01-09-2016</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Lan Hương</t>
+  </si>
+  <si>
+    <t>01-11-2013</t>
+  </si>
+  <si>
+    <t>01-11-2016</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Thương</t>
+  </si>
+  <si>
+    <t>Thư viện viên</t>
+  </si>
+  <si>
+    <t>Hoàng Đình Thi</t>
+  </si>
+  <si>
+    <t>Giáo viên trung học cao cấp</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70 </t>
+  </si>
+  <si>
+    <t>7/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44 </t>
+  </si>
+  <si>
+    <t>Phùng Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Vũ Thế Thuần</t>
+  </si>
+  <si>
+    <t>Đặng Thị Bích Hợp</t>
+  </si>
+  <si>
+    <t>Chu Phương Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHẠM NGỌC TRƯỜNG					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Bí thư Đoàn TNCS HCM					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN NGỌC VŨ					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Trưởng khoa 					</t>
+  </si>
+  <si>
+    <t>Giảng viên chính</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08 </t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN VĂN NAM					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHẠM TRỌNG HIỂN					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN ĐỨC PHONG					</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LƯU NGỌC QUANG					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÊ THỊ HÀ					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Trưởng bộ môn   					</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÙI THỊ NHUNG					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN HỮU TUÂN					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Thị Hương Thanh </t>
+  </si>
+  <si>
+    <t>Phó Trưởng bộ môn</t>
+  </si>
+  <si>
+    <t>Lê Trọng Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG VĂN QUYẾT				</t>
+  </si>
+  <si>
+    <t>Giáo viên trung học</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Dương Ngọc Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN THỊ PHƯƠNG THANH					</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Loan</t>
+  </si>
+  <si>
+    <t>01-02-2014</t>
+  </si>
+  <si>
+    <t>01-02-2017</t>
+  </si>
+  <si>
+    <t>Phạm Thị Quế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔNG QUANG VINH				</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tuân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bế Lê Hợp				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Bích Hằng					</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thơm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHẠM VĂN MINH					</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tình</t>
+  </si>
+  <si>
+    <t>Phó Trưởng Phòng HC-QT</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Phùng Văn Thuần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN TIẾN TÚC					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỖ VĂN NGUYÊN					</t>
+  </si>
+  <si>
+    <t>01-06-2013</t>
+  </si>
+  <si>
+    <t>01-06-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN THỊ THANH DẦN					</t>
+  </si>
+  <si>
+    <t>Trần Anh Tuấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN THU HẰNG					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN THỊ THAO				</t>
+  </si>
+  <si>
+    <t>Phó trưởng bộ môn</t>
   </si>
 </sst>
 </file>
@@ -202,6 +574,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -261,16 +638,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -364,9 +736,6 @@
     <xf xfId="0" fontId="3" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -394,13 +763,28 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" quotePrefix="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,11 +793,20 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -421,49 +814,64 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" quotePrefix="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="1" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -768,7 +1176,7 @@
   <dimension ref="A1:Y1939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="W65" sqref="W65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,1630 +1209,2786 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customHeight="1" ht="24">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1"/>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
     </row>
     <row r="2" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:25" customHeight="1" ht="18.75">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:25" customHeight="1" ht="45">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
     </row>
     <row r="8" spans="1:25" customHeight="1" ht="20.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="47" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
     </row>
     <row r="9" spans="1:25" customHeight="1" ht="17.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="43" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="56" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="41" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="37"/>
+      <c r="L9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="14"/>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="42" t="s">
+      <c r="O9" s="38"/>
+      <c r="P9" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="43" t="s">
+      <c r="Q9" s="37"/>
+      <c r="R9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="43" t="s">
+      <c r="S9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="54" t="s">
+      <c r="U9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="52" t="s">
+      <c r="V9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="50" t="s">
+      <c r="W9" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:25" customHeight="1" ht="60.75">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="41"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="38" t="s">
+      <c r="N10" s="47"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="51"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="59"/>
     </row>
     <row r="11" spans="1:25" customHeight="1" ht="24.75" s="4" customFormat="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="25">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="29"/>
+      <c r="J11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="K11" s="26"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="31"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="24"/>
+      <c r="A12" s="65">
+        <v>2</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="75"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="24"/>
+      <c r="A13" s="65">
+        <v>3</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="75"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="24"/>
+      <c r="A14" s="65">
+        <v>4</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="75"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="24"/>
+      <c r="A15" s="65">
+        <v>5</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="75"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="76" t="s">
+        <v>43</v>
+      </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="24"/>
+      <c r="A16" s="65">
+        <v>6</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="75"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="24"/>
+      <c r="A17" s="65">
+        <v>7</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="75"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="76" t="s">
+        <v>52</v>
+      </c>
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="24"/>
+      <c r="A18" s="65">
+        <v>8</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="75"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="76" t="s">
+        <v>56</v>
+      </c>
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="24"/>
+      <c r="A19" s="65">
+        <v>9</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="75"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="76" t="s">
+        <v>43</v>
+      </c>
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="24"/>
+      <c r="A20" s="65">
+        <v>10</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" s="75"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="24"/>
+      <c r="A21" s="65">
+        <v>11</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U21" s="75"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="24"/>
+      <c r="A22" s="65">
+        <v>12</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="U22" s="75"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="76" t="s">
+        <v>43</v>
+      </c>
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="24"/>
+      <c r="A23" s="65">
+        <v>13</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="75"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="24"/>
+      <c r="A24" s="65">
+        <v>14</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="75"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="24"/>
+      <c r="A25" s="65">
+        <v>15</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U25" s="75"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="76" t="s">
+        <v>79</v>
+      </c>
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="24"/>
+      <c r="A26" s="65">
+        <v>16</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="75"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="24"/>
+      <c r="A27" s="65">
+        <v>17</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="T27" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="U27" s="75"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="24"/>
+      <c r="A28" s="65">
+        <v>18</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="U28" s="75"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="24"/>
+      <c r="A29" s="65">
+        <v>19</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="75"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="76" t="s">
+        <v>43</v>
+      </c>
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="24"/>
+      <c r="A30" s="65">
+        <v>20</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" s="75"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="76" t="s">
+        <v>43</v>
+      </c>
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="20"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="24"/>
+      <c r="A31" s="65">
+        <v>21</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T31" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U31" s="75"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="24"/>
+      <c r="A32" s="65">
+        <v>22</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32" s="75"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="76" t="s">
+        <v>43</v>
+      </c>
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="65">
+        <v>23</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S33" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U33" s="75"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X33" s="1"/>
     </row>
     <row r="34" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="24"/>
+      <c r="A34" s="65">
+        <v>24</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="S34" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="T34" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="U34" s="75"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="24"/>
+      <c r="A35" s="65">
+        <v>25</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="75"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="20"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="24"/>
+      <c r="A36" s="65">
+        <v>26</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S36" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="75"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="24"/>
+      <c r="A37" s="65">
+        <v>27</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="T37" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="U37" s="75"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="24"/>
+      <c r="A38" s="65">
+        <v>28</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="T38" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="U38" s="75"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X38" s="1"/>
     </row>
     <row r="39" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="24"/>
+      <c r="A39" s="65">
+        <v>29</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="S39" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="T39" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="U39" s="75"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="20"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="24"/>
+      <c r="A40" s="65">
+        <v>30</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="67"/>
+      <c r="F40" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S40" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="75"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="24"/>
+      <c r="A41" s="65">
+        <v>31</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S41" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T41" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" s="75"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X41" s="1"/>
     </row>
     <row r="42" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="24"/>
+      <c r="A42" s="65">
+        <v>32</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S42" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="T42" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="U42" s="75"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="24"/>
+      <c r="A43" s="65">
+        <v>33</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S43" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T43" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U43" s="75"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X43" s="1"/>
     </row>
     <row r="44" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="24"/>
+      <c r="A44" s="65">
+        <v>34</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="T44" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="U44" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="V44" s="73"/>
+      <c r="W44" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="20"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="24"/>
+      <c r="A45" s="65">
+        <v>35</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S45" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T45" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U45" s="75"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="20"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="24"/>
+      <c r="A46" s="65">
+        <v>36</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="U46" s="75"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X46" s="1"/>
     </row>
     <row r="47" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="20"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="24"/>
+      <c r="A47" s="65">
+        <v>37</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S47" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T47" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U47" s="75"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X47" s="1"/>
     </row>
     <row r="48" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="20"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="24"/>
+      <c r="A48" s="65">
+        <v>38</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S48" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T48" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U48" s="75"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="76" t="s">
+        <v>126</v>
+      </c>
       <c r="X48" s="1"/>
     </row>
     <row r="49" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A49" s="15"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="20"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="24"/>
+      <c r="A49" s="65">
+        <v>39</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T49" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U49" s="75"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="76" t="s">
+        <v>52</v>
+      </c>
       <c r="X49" s="1"/>
     </row>
     <row r="50" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A50" s="15"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="20"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="24"/>
+      <c r="A50" s="65">
+        <v>40</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="S50" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="T50" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="U50" s="75"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X50" s="1"/>
     </row>
     <row r="51" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A51" s="15"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="24"/>
+      <c r="A51" s="65">
+        <v>41</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T51" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U51" s="75"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X51" s="1"/>
     </row>
     <row r="52" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="24"/>
+      <c r="A52" s="65">
+        <v>42</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="67"/>
+      <c r="F52" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S52" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T52" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="U52" s="75"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="X52" s="1"/>
     </row>
     <row r="53" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A53" s="15"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="20"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="24"/>
+      <c r="A53" s="65">
+        <v>43</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="67"/>
+      <c r="F53" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S53" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T53" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U53" s="75"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X53" s="1"/>
     </row>
     <row r="54" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="20"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="24"/>
+      <c r="A54" s="65">
+        <v>44</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="67"/>
+      <c r="F54" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S54" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="T54" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="U54" s="75"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X54" s="1"/>
     </row>
     <row r="55" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="20"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="24"/>
+      <c r="A55" s="65">
+        <v>45</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="67"/>
+      <c r="F55" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="S55" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="U55" s="75"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="X55" s="1"/>
     </row>
     <row r="56" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A56" s="15"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="20"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="24"/>
+      <c r="A56" s="65">
+        <v>46</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="67"/>
+      <c r="F56" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U56" s="75"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="76" t="s">
+        <v>43</v>
+      </c>
       <c r="X56" s="1"/>
     </row>
     <row r="57" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A57" s="15"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="20"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="24"/>
+      <c r="A57" s="65">
+        <v>47</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="67"/>
+      <c r="F57" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="S57" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="T57" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="U57" s="75"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="76" t="s">
+        <v>79</v>
+      </c>
       <c r="X57" s="1"/>
     </row>
     <row r="58" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="20"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="24"/>
+      <c r="A58" s="65">
+        <v>48</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="67"/>
+      <c r="F58" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S58" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T58" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U58" s="75"/>
+      <c r="V58" s="73"/>
+      <c r="W58" s="76" t="s">
+        <v>79</v>
+      </c>
       <c r="X58" s="1"/>
     </row>
     <row r="59" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A59" s="15"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="20"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="24"/>
+      <c r="A59" s="65">
+        <v>49</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="67"/>
+      <c r="F59" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="S59" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T59" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U59" s="75"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="76" t="s">
+        <v>126</v>
+      </c>
       <c r="X59" s="1"/>
     </row>
     <row r="60" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="20"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="24"/>
+      <c r="A60" s="65">
+        <v>50</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="67"/>
+      <c r="F60" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="S60" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="T60" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="U60" s="75"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X60" s="1"/>
     </row>
     <row r="61" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="20"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="24"/>
+      <c r="A61" s="65">
+        <v>51</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="67"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S61" s="74"/>
+      <c r="T61" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U61" s="75"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="76" t="s">
+        <v>142</v>
+      </c>
       <c r="X61" s="1"/>
     </row>
     <row r="62" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A62" s="15"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="24"/>
+      <c r="A62" s="65">
+        <v>52</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="67"/>
+      <c r="F62" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T62" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U62" s="75"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="X62" s="1"/>
     </row>
     <row r="63" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A63" s="15"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="20"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="24"/>
+      <c r="A63" s="65">
+        <v>53</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="67"/>
+      <c r="F63" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="S63" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="T63" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="U63" s="75"/>
+      <c r="V63" s="73"/>
+      <c r="W63" s="76" t="s">
+        <v>79</v>
+      </c>
       <c r="X63" s="1"/>
     </row>
     <row r="64" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A64" s="15"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="20"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="24"/>
+      <c r="A64" s="65">
+        <v>54</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="67"/>
+      <c r="F64" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T64" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="U64" s="75"/>
+      <c r="V64" s="73"/>
+      <c r="W64" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="X64" s="1"/>
     </row>
     <row r="65" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
-      <c r="A65" s="15"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="20"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="24"/>
+      <c r="A65" s="65">
+        <v>55</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="67"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="74"/>
+      <c r="T65" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U65" s="75"/>
+      <c r="V65" s="73"/>
+      <c r="W65" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="X65" s="1"/>
     </row>
     <row r="66" spans="1:25" customHeight="1" ht="20.25" s="4" customFormat="1">
@@ -50189,6 +51753,15 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="R1:W1"/>
     <mergeCell ref="A7:W7"/>
@@ -50205,15 +51778,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:P8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.19685039370079" right="0.19685039370079" top="0.19685039370079" bottom="0.23622047244094" header="0.15748031496063" footer="0.23622047244094"/>
